--- a/Assets/ERang/Excels/SummonData.xlsx
+++ b/Assets/ERang/Excels/SummonData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59560DC1-FECD-43FA-BE41-A13497FED23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1560" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>#NameDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,12 +59,23 @@
   <si>
     <t>Value</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌충</t>
+  </si>
+  <si>
+    <t>찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -498,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -627,6 +639,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>81001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>81007</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>81010</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/SummonData.xlsx
+++ b/Assets/ERang/Excels/SummonData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59560DC1-FECD-43FA-BE41-A13497FED23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D1F895-F87C-4F71-8BFE-24E6D2C47E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>#NameDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>임프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화불량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,18 +515,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
@@ -681,6 +685,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1015</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/SummonData.xlsx
+++ b/Assets/ERang/Excels/SummonData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D1F895-F87C-4F71-8BFE-24E6D2C47E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247CB03-5754-4217-AD82-11C2D8F28119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>#NameDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,22 @@
   </si>
   <si>
     <t>소화불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남동생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 언니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 언니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,18 +531,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
@@ -556,7 +572,7 @@
         <v>100101</v>
       </c>
       <c r="D2" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -570,7 +586,7 @@
         <v>100301</v>
       </c>
       <c r="D3" s="2">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -584,7 +600,7 @@
         <v>200101</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -598,7 +614,7 @@
         <v>200101</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -612,7 +628,7 @@
         <v>300101</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -626,7 +642,7 @@
         <v>300201</v>
       </c>
       <c r="D7" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -640,7 +656,7 @@
         <v>1006</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -654,7 +670,7 @@
         <v>81001</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -668,7 +684,7 @@
         <v>81007</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -682,20 +698,76 @@
         <v>81010</v>
       </c>
       <c r="D11" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>81040</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>81041</v>
+      </c>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>81042</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>81043</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>1005</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C16" s="2">
         <v>1015</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D16" s="2">
         <v>10</v>
       </c>
     </row>
